--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H2">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I2">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J2">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>66.79547874001601</v>
+        <v>111.629865488713</v>
       </c>
       <c r="R2">
-        <v>601.1593086601441</v>
+        <v>1004.668789398417</v>
       </c>
       <c r="S2">
-        <v>0.02342692673859211</v>
+        <v>0.04313966587763295</v>
       </c>
       <c r="T2">
-        <v>0.02714064225769239</v>
+        <v>0.0472328281646562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H3">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I3">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J3">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>71.48078328714</v>
+        <v>135.4205488974433</v>
       </c>
       <c r="R3">
-        <v>643.3270495842601</v>
+        <v>1218.78494007699</v>
       </c>
       <c r="S3">
-        <v>0.02507018595978413</v>
+        <v>0.05233364034638249</v>
       </c>
       <c r="T3">
-        <v>0.02904439647849493</v>
+        <v>0.05729914201753741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H4">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I4">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J4">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>35.892836507272</v>
+        <v>76.45161075863423</v>
       </c>
       <c r="R4">
-        <v>323.035528565448</v>
+        <v>688.064496827708</v>
       </c>
       <c r="S4">
-        <v>0.01258855939290367</v>
+        <v>0.02954493342346456</v>
       </c>
       <c r="T4">
-        <v>0.01458414032855957</v>
+        <v>0.03234820518742689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H5">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I5">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J5">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>81.79436219913902</v>
+        <v>83.37624339032084</v>
       </c>
       <c r="R5">
-        <v>490.7661731948341</v>
+        <v>500.2574603419251</v>
       </c>
       <c r="S5">
-        <v>0.02868742865557368</v>
+        <v>0.03222097658403362</v>
       </c>
       <c r="T5">
-        <v>0.02215670446581704</v>
+        <v>0.02351877047615459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H6">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I6">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J6">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>41.00780171504601</v>
+        <v>82.24754373121</v>
       </c>
       <c r="R6">
-        <v>369.0702154354141</v>
+        <v>740.2278935808901</v>
       </c>
       <c r="S6">
-        <v>0.01438251187970847</v>
+        <v>0.03178478752336362</v>
       </c>
       <c r="T6">
-        <v>0.01666247622020085</v>
+        <v>0.03480058031973606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J7">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>479.0801119942125</v>
+        <v>422.616267460901</v>
       </c>
       <c r="R7">
-        <v>4311.721007947912</v>
+        <v>3803.546407148109</v>
       </c>
       <c r="S7">
-        <v>0.1680259636926772</v>
+        <v>0.1633212088261366</v>
       </c>
       <c r="T7">
-        <v>0.1946620067358022</v>
+        <v>0.1788173931158901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J8">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>512.6847252031367</v>
+        <v>512.6847252031366</v>
       </c>
       <c r="R8">
-        <v>4614.162526828231</v>
+        <v>4614.16252682823</v>
       </c>
       <c r="S8">
-        <v>0.1798119831445082</v>
+        <v>0.1981284098928316</v>
       </c>
       <c r="T8">
-        <v>0.208316385782346</v>
+        <v>0.2169271585354745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J9">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>257.4357495156671</v>
+        <v>289.4359340015018</v>
       </c>
       <c r="R9">
-        <v>2316.921745641004</v>
+        <v>2604.923406013516</v>
       </c>
       <c r="S9">
-        <v>0.09028947104746267</v>
+        <v>0.1118533058437475</v>
       </c>
       <c r="T9">
-        <v>0.1046024628274706</v>
+        <v>0.1224661310440438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J10">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>586.6572549824846</v>
+        <v>315.6516996797042</v>
       </c>
       <c r="R10">
-        <v>3519.943529894907</v>
+        <v>1893.910198078225</v>
       </c>
       <c r="S10">
-        <v>0.2057560899687763</v>
+        <v>0.1219844599675364</v>
       </c>
       <c r="T10">
-        <v>0.1589154933408259</v>
+        <v>0.08903903046364482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J11">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>294.1220365340553</v>
+        <v>311.37858840317</v>
       </c>
       <c r="R11">
-        <v>2647.098328806498</v>
+        <v>2802.40729562853</v>
       </c>
       <c r="S11">
-        <v>0.1031563143503742</v>
+        <v>0.1203331044640554</v>
       </c>
       <c r="T11">
-        <v>0.1195090015709769</v>
+        <v>0.1317505068720808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H12">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I12">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J12">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>95.37635209570001</v>
+        <v>0.26255321798</v>
       </c>
       <c r="R12">
-        <v>572.2581125742001</v>
+        <v>2.36297896182</v>
       </c>
       <c r="S12">
-        <v>0.0334509888287028</v>
+        <v>0.0001014644069413464</v>
       </c>
       <c r="T12">
-        <v>0.02583583500861847</v>
+        <v>0.0001110915163664759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H13">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I13">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J13">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>102.066434487375</v>
+        <v>0.3185088572666667</v>
       </c>
       <c r="R13">
-        <v>612.3986069242501</v>
+        <v>2.8665797154</v>
       </c>
       <c r="S13">
-        <v>0.03579737623427764</v>
+        <v>0.0001230886163070759</v>
       </c>
       <c r="T13">
-        <v>0.02764806478117203</v>
+        <v>0.0001347674662003297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H14">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I14">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J14">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>51.25089118315</v>
+        <v>0.1798140339644445</v>
       </c>
       <c r="R14">
-        <v>307.5053470989</v>
+        <v>1.61832630568</v>
       </c>
       <c r="S14">
-        <v>0.01797503207827033</v>
+        <v>6.948962368963714E-05</v>
       </c>
       <c r="T14">
-        <v>0.01388299656631782</v>
+        <v>7.608291321192183E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H15">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I15">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J15">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>116.7930529985813</v>
+        <v>0.1961007559166667</v>
       </c>
       <c r="R15">
-        <v>467.1722119943251</v>
+        <v>1.1766045355</v>
       </c>
       <c r="S15">
-        <v>0.04096238769129621</v>
+        <v>7.578367179392172E-05</v>
       </c>
       <c r="T15">
-        <v>0.02109150385898937</v>
+        <v>5.531610061889538E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H16">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I16">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J16">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>58.55448016576252</v>
+        <v>0.1934460566</v>
       </c>
       <c r="R16">
-        <v>351.3268809945751</v>
+        <v>1.7410145094</v>
       </c>
       <c r="S16">
-        <v>0.02053659234031167</v>
+        <v>7.475775600494174E-05</v>
       </c>
       <c r="T16">
-        <v>0.01586141486162235</v>
+        <v>8.185089456586339E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H17">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I17">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J17">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>0.05270754454044445</v>
+        <v>56.050519389561</v>
       </c>
       <c r="R17">
-        <v>0.474367900864</v>
+        <v>336.303116337366</v>
       </c>
       <c r="S17">
-        <v>1.848591862521288E-05</v>
+        <v>0.0216608760401842</v>
       </c>
       <c r="T17">
-        <v>2.141636885666324E-05</v>
+        <v>0.01581073033503177</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H18">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I18">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J18">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>0.05640466450666667</v>
+        <v>67.99606958666999</v>
       </c>
       <c r="R18">
-        <v>0.5076419805600001</v>
+        <v>407.9764175200199</v>
       </c>
       <c r="S18">
-        <v>1.978259558937672E-05</v>
+        <v>0.02627726648347359</v>
       </c>
       <c r="T18">
-        <v>2.291859943094455E-05</v>
+        <v>0.01918033109746915</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H19">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I19">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J19">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>0.02832262474311111</v>
+        <v>38.387150897564</v>
       </c>
       <c r="R19">
-        <v>0.254903622688</v>
+        <v>230.322905385384</v>
       </c>
       <c r="S19">
-        <v>9.933487526664014E-06</v>
+        <v>0.01483481912716834</v>
       </c>
       <c r="T19">
-        <v>1.1508177506199E-05</v>
+        <v>0.01082824740576076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H20">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I20">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J20">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>0.06454299108400001</v>
+        <v>41.86408114278751</v>
       </c>
       <c r="R20">
-        <v>0.387257946504</v>
+        <v>167.45632457115</v>
       </c>
       <c r="S20">
-        <v>2.26369202247911E-05</v>
+        <v>0.01617848830030682</v>
       </c>
       <c r="T20">
-        <v>1.748360082943596E-05</v>
+        <v>0.007872679919011017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H21">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I21">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J21">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>0.03235878499822223</v>
+        <v>41.29734927537</v>
       </c>
       <c r="R21">
-        <v>0.291229064984</v>
+        <v>247.78409565222</v>
       </c>
       <c r="S21">
-        <v>1.134907481468594E-05</v>
+        <v>0.01595947322494538</v>
       </c>
       <c r="T21">
-        <v>1.314816847033384E-05</v>
+        <v>0.01164915615511852</v>
       </c>
     </row>
   </sheetData>
